--- a/ToDoApp-Doc/Document/Diagram/Use-case/TaskList/TaskList Specification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Use-case/TaskList/TaskList Specification.xlsx
@@ -599,11 +599,11 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -760,11 +760,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>95</v>
       </c>
@@ -930,11 +930,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>107</v>
       </c>
@@ -1100,11 +1100,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>120</v>
       </c>
@@ -1270,11 +1270,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>132</v>
       </c>
@@ -1440,11 +1440,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>132</v>
       </c>
@@ -1610,11 +1610,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1771,11 +1771,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,7 +1823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1941,11 +1941,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,7 +1993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
@@ -2108,14 +2108,14 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,7 +2163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2272,11 +2272,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -2433,11 +2433,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
@@ -2594,11 +2594,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,7 +2646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>79</v>
       </c>
@@ -2755,11 +2755,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>87</v>
       </c>
